--- a/LF/TAS/Senegal/TAS2/Jun 2023/sn_lf_tas2_20306_2_partcipants.xlsx
+++ b/LF/TAS/Senegal/TAS2/Jun 2023/sn_lf_tas2_20306_2_partcipants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Senegal\TAS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Senegal\TAS2\Jun 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3309FB9-E595-4B14-94A0-EC5D324A9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59332A-ED2B-4083-BF42-A7E13D269DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -339,19 +339,16 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>(2023 Mai) 2. TAS(1-3) FL - Formulaire Participants V2.1</t>
-  </si>
-  <si>
-    <t>sn_lf_tas3_20305_2_partcipants_v2_1</t>
+    <t>sn_lf_tas2_20306_2_partcipants</t>
+  </si>
+  <si>
+    <t>(2023 Juin) 2. TAS(1-3) FL - Formulaire Participants</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -482,15 +479,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -500,25 +494,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -526,20 +511,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -856,524 +835,522 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="37.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="63">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="12"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="15" t="s">
+      <c r="F6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="31.5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="13" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13" t="s">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="47.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="19" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12" t="s">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="31.5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1507,21 +1484,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="49.625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="30"/>
+    <col min="1" max="1" width="49.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="24" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -1531,22 +1507,16 @@
       <c r="C1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="30">
-        <v>20210419</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Senegal/TAS2/Jun 2023/sn_lf_tas2_20306_2_partcipants.xlsx
+++ b/LF/TAS/Senegal/TAS2/Jun 2023/sn_lf_tas2_20306_2_partcipants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Senegal\TAS2\Jun 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59332A-ED2B-4083-BF42-A7E13D269DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9AFDE-2817-4CAD-BED4-DE2AA5F9114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <t>sn_lf_tas2_20306_2_partcipants</t>
   </si>
   <si>
-    <t>(2023 Juin) 2. TAS(1-3) FL - Formulaire Participants</t>
+    <t>(2023 Juin) 2. TAS2 FL - Formulaire Participants</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
